--- a/src/main/resources/dumy-data/roles.xlsx
+++ b/src/main/resources/dumy-data/roles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vutie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cashlog\src\main\resources\dumy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD423CB0-6EF4-4FDF-94C3-FDC1EE7DC3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11BD70-6CB8-41B2-ABDA-CB889A54A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9724FC87-7F7F-4D15-A595-47A41CFA860A}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Thu quy</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
@@ -446,34 +446,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
